--- a/excel-sheets/simplified-arm-study-data2.xlsx
+++ b/excel-sheets/simplified-arm-study-data2.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.277777777777778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.944444444444444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.361111111111112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.055555555555555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.611111111111111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.611111111111112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.944444444444445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.388888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.472222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.361111111111112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.472222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.111111111111111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.166666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.777777777777778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.083333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.777777777777779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.722222222222223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.861111111111111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.777777777777778</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
